--- a/Excel Data/BankersCheuqeInwardClearing_IBG.xlsx
+++ b/Excel Data/BankersCheuqeInwardClearing_IBG.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
-  <si>
-    <t>ISFK0012078</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>CL.CHEQUE.NO:1</t>
   </si>
@@ -38,10 +35,19 @@
     <t>CL.NO.MV</t>
   </si>
   <si>
-    <t>ISFK0012079</t>
-  </si>
-  <si>
-    <t>ISFK0012076</t>
+    <t>CLK0029898</t>
+  </si>
+  <si>
+    <t>CLK0029896</t>
+  </si>
+  <si>
+    <t>CLK0029894</t>
+  </si>
+  <si>
+    <t>CLK0029893</t>
+  </si>
+  <si>
+    <t>002</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,21 +381,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -405,7 +411,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +423,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -444,23 +450,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" activeCellId="1" sqref="C1 L6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,9 +474,20 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
